--- a/xlsx/1648年_intext.xlsx
+++ b/xlsx/1648年_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="132">
   <si>
     <t>1648年</t>
   </si>
@@ -197,7 +197,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B8%E6%9B%86_(%E5%8D%97%E6%98%8E)</t>
   </si>
   <si>
-    <t>永曆 (南明)</t>
+    <t>永历 (南明)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A1%BA%E6%B2%BB</t>
@@ -239,7 +239,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%85%B6%E5%AE%89_(%E5%BE%8C%E5%85%89%E6%98%8E%E5%A4%A9%E7%9A%87)</t>
   </si>
   <si>
-    <t>慶安 (後光明天皇)</t>
+    <t>庆安 (后光明天皇)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/10%E6%9C%8824%E6%97%A5</t>
@@ -257,7 +257,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E5%8D%81%E5%B9%B4%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>三十年戰爭</t>
+    <t>三十年战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/11%E6%9C%8811%E6%97%A5</t>
@@ -287,15 +287,12 @@
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E6%96%AF%E7%89%B9%E5%92%8C%E7%B4%84</t>
   </si>
   <si>
-    <t>明斯特和約</t>
+    <t>明斯特和约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD</t>
   </si>
   <si>
-    <t>荷蘭</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99</t>
   </si>
   <si>
@@ -329,7 +326,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%96%87%E5%BA%AB</t>
   </si>
   <si>
-    <t>維基文庫</t>
+    <t>维基文库</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2%E6%9C%8828%E6%97%A5</t>
@@ -371,31 +368,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%AA%E7%88%BE%E5%93%88%E8%B5%A4</t>
   </si>
   <si>
-    <t>努爾哈赤</t>
+    <t>努尔哈赤</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9B%E5%A4%A7%E8%B2%9D%E5%8B%92</t>
   </si>
   <si>
-    <t>四大貝勒</t>
+    <t>四大贝勒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%98%E4%BB%94%E8%BD%84%C2%B7%E9%98%BF%E6%8B%89%E7%B1%B3</t>
   </si>
   <si>
-    <t>甘仔轄·阿拉米</t>
+    <t>甘仔辖·阿拉米</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3</t>
   </si>
   <si>
-    <t>台灣</t>
+    <t>台湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%82%9A%E7%8E%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>大肚王國</t>
+    <t>大肚王国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%AA%E6%A0%BC</t>
@@ -413,7 +410,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%82%85%E8%A6%AA%E7%8E%8B</t>
   </si>
   <si>
-    <t>肅親王</t>
+    <t>肃亲王</t>
   </si>
 </sst>
 </file>
@@ -2089,7 +2086,7 @@
         <v>91</v>
       </c>
       <c r="F46" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2115,10 +2112,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="s">
         <v>93</v>
-      </c>
-      <c r="F47" t="s">
-        <v>94</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2144,10 +2141,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" t="s">
         <v>95</v>
-      </c>
-      <c r="F48" t="s">
-        <v>96</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2173,10 +2170,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" t="s">
         <v>97</v>
-      </c>
-      <c r="F49" t="s">
-        <v>98</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2202,10 +2199,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" t="s">
         <v>99</v>
-      </c>
-      <c r="F50" t="s">
-        <v>100</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2231,10 +2228,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" t="s">
         <v>101</v>
-      </c>
-      <c r="F51" t="s">
-        <v>102</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2260,10 +2257,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" t="s">
         <v>103</v>
-      </c>
-      <c r="F52" t="s">
-        <v>104</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2289,10 +2286,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" t="s">
         <v>105</v>
-      </c>
-      <c r="F53" t="s">
-        <v>106</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2318,10 +2315,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" t="s">
         <v>107</v>
-      </c>
-      <c r="F54" t="s">
-        <v>108</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2347,10 +2344,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" t="s">
         <v>109</v>
-      </c>
-      <c r="F55" t="s">
-        <v>110</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2376,10 +2373,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>110</v>
+      </c>
+      <c r="F56" t="s">
         <v>111</v>
-      </c>
-      <c r="F56" t="s">
-        <v>112</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2405,10 +2402,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" t="s">
         <v>113</v>
-      </c>
-      <c r="F57" t="s">
-        <v>114</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2434,10 +2431,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>114</v>
+      </c>
+      <c r="F58" t="s">
         <v>115</v>
-      </c>
-      <c r="F58" t="s">
-        <v>116</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2463,10 +2460,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>116</v>
+      </c>
+      <c r="F59" t="s">
         <v>117</v>
-      </c>
-      <c r="F59" t="s">
-        <v>118</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2492,10 +2489,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>118</v>
+      </c>
+      <c r="F60" t="s">
         <v>119</v>
-      </c>
-      <c r="F60" t="s">
-        <v>120</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -2521,10 +2518,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>120</v>
+      </c>
+      <c r="F61" t="s">
         <v>121</v>
-      </c>
-      <c r="F61" t="s">
-        <v>122</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -2550,10 +2547,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" t="s">
         <v>123</v>
-      </c>
-      <c r="F62" t="s">
-        <v>124</v>
       </c>
       <c r="G62" t="n">
         <v>2</v>
@@ -2579,10 +2576,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>124</v>
+      </c>
+      <c r="F63" t="s">
         <v>125</v>
-      </c>
-      <c r="F63" t="s">
-        <v>126</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -2608,10 +2605,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>126</v>
+      </c>
+      <c r="F64" t="s">
         <v>127</v>
-      </c>
-      <c r="F64" t="s">
-        <v>128</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -2637,10 +2634,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>128</v>
+      </c>
+      <c r="F65" t="s">
         <v>129</v>
-      </c>
-      <c r="F65" t="s">
-        <v>130</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -2666,10 +2663,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>130</v>
+      </c>
+      <c r="F66" t="s">
         <v>131</v>
-      </c>
-      <c r="F66" t="s">
-        <v>132</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
